--- a/src/demos/zdemo_excel15_24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_24.w3mi.data.xlsx
@@ -398,33 +398,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true"/>
+    <col min="1" max="1" width="9.0999999999999996E+00" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A4" s="2">
         <v>44534</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet2!A1"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -443,30 +440,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A4" s="2">
         <v>44534</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet3!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -485,30 +479,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A4" s="2">
         <v>44534</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet4!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -519,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A3:D9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,10 +518,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="0.0000000000000000E+00">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -541,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="0.0000000000000000E+00">
       <c r="B4" s="2">
         <v>57</v>
       </c>
@@ -552,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="0.0000000000000000E+00">
       <c r="B5" s="2">
         <v>58</v>
       </c>
@@ -563,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="0.0000000000000000E+00">
       <c r="B6" s="2">
         <v>59</v>
       </c>
@@ -574,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="0.0000000000000000E+00">
       <c r="B7" s="2">
         <v>61</v>
       </c>
@@ -585,15 +576,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="0.0000000000000000E+00">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" location="Sheet1!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>

--- a/src/demos/zdemo_excel15_24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_24.w3mi.data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>19000226</t>
   </si>
@@ -44,9 +44,6 @@
     <t>61</t>
   </si>
   <si>
-    <t>Current Date:</t>
-  </si>
-  <si>
     <t>Date Format set to YYYY/MM/DD</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Date as string</t>
+  </si>
+  <si>
+    <t>Date:</t>
   </si>
   <si>
     <t>Default Date Format</t>
@@ -408,12 +408,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -422,9 +422,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet2!A1"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -448,17 +445,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -467,9 +464,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet3!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -493,17 +487,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -512,9 +506,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet4!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -550,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,9 +594,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" location="Sheet1!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>

--- a/src/demos/zdemo_excel15_24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_24.w3mi.data.xlsx
@@ -422,6 +422,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet2!A1"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -464,6 +467,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet3!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -506,6 +512,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet4!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -594,6 +603,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" location="Sheet1!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>

--- a/src/demos/zdemo_excel15_24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_24.w3mi.data.xlsx
@@ -241,7 +241,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,9 +379,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 

--- a/src/demos/zdemo_excel15_24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_24.w3mi.data.xlsx
@@ -241,7 +241,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,9 +379,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
@@ -422,6 +422,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet2!A1"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -464,6 +467,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet3!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -506,6 +512,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet4!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -594,6 +603,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" location="Sheet1!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
